--- a/input/Barcodes.xlsx
+++ b/input/Barcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BDE81-0A63-40D3-9BEB-F5EA73B1FEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD68AA64-BF0B-4C0C-974E-DA52DA3F10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="1332" windowWidth="23040" windowHeight="13068" xr2:uid="{9F93A3DF-D9A6-4749-B10D-4F870D016F2F}"/>
+    <workbookView xWindow="5304" yWindow="2700" windowWidth="23040" windowHeight="12060" xr2:uid="{9F93A3DF-D9A6-4749-B10D-4F870D016F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1495">
   <si>
     <t>NO</t>
   </si>
@@ -1863,15 +1863,9 @@
     <t>Mm</t>
   </si>
   <si>
-    <t>CT2A</t>
-  </si>
-  <si>
     <t>HEK</t>
   </si>
   <si>
-    <t>OPC</t>
-  </si>
-  <si>
     <t>Plates</t>
   </si>
   <si>
@@ -4533,21 +4527,6 @@
     <t>Tcell</t>
   </si>
   <si>
-    <t>SHP77</t>
-  </si>
-  <si>
-    <t>NICH82</t>
-  </si>
-  <si>
-    <t>Plate1</t>
-  </si>
-  <si>
-    <t>Plate2</t>
-  </si>
-  <si>
-    <t>BurnTissue</t>
-  </si>
-  <si>
     <t>LN: Liquid Nitrogen</t>
   </si>
   <si>
@@ -4558,6 +4537,18 @@
   </si>
   <si>
     <t>Sample and Conditions</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>coculture</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>NIH3T3</t>
   </si>
 </sst>
 </file>
@@ -4619,16 +4610,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4984,7 +4990,7 @@
   <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5030,7 +5036,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -5115,7 +5121,7 @@
         <v>577</v>
       </c>
       <c r="O3" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5200,7 +5206,7 @@
         <v>577</v>
       </c>
       <c r="O5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -5244,7 +5250,7 @@
         <v>577</v>
       </c>
       <c r="O6" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5288,7 +5294,7 @@
         <v>577</v>
       </c>
       <c r="O7" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -5366,19 +5372,19 @@
       <c r="L9" t="s">
         <v>576</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="4" t="s">
         <v>575</v>
       </c>
       <c r="O9" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="F11" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5392,7 +5398,7 @@
         <v>598</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -5406,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F14" t="s">
-        <v>599</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -5423,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F15" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -5440,13 +5446,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>570</v>
       </c>
@@ -5457,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="F17" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>571</v>
       </c>
@@ -5474,13 +5477,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>572</v>
       </c>
@@ -5491,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="F19" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>573</v>
       </c>
@@ -5508,13 +5508,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>574</v>
       </c>
@@ -5525,10 +5522,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1486</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>575</v>
       </c>
@@ -5538,17 +5544,20 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>972</v>
+      <c r="E22" t="s">
+        <v>1486</v>
       </c>
       <c r="F22" t="s">
-        <v>601</v>
-      </c>
-      <c r="G22">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1491</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>576</v>
       </c>
@@ -5558,11 +5567,20 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>577</v>
       </c>
@@ -5572,49 +5590,55 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>972</v>
+      <c r="E24" t="s">
+        <v>1493</v>
       </c>
       <c r="F24" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1491</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>585</v>
       </c>
@@ -5676,344 +5700,354 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13:C109">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M9 F11 E14:F16 E17:E21 F19:F20">
+  <conditionalFormatting sqref="B2:M9 F11 E14:F15 E17:F17 E16:E18 E23:F24 E19:F19">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISODD(VALUE(RIGHT(B2, LEN(B2)-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISODD(VALUE(RIGHT(E20, LEN(E20)-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F22">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISODD(VALUE(RIGHT(B2, LEN(B2)-1)))</formula>
+      <formula>ISODD(VALUE(RIGHT(E21, LEN(E21)-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6052,7 +6086,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6071,7 +6105,7 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!14:14)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6097,7 +6131,7 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!16:16)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6110,7 +6144,7 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!17:17)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6123,7 +6157,7 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!18:18)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,7 +6170,7 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!19:19)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6149,7 +6183,7 @@
       </c>
       <c r="C8" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!20:20)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6162,7 +6196,7 @@
       </c>
       <c r="C9" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!21:21)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6175,7 +6209,7 @@
       </c>
       <c r="C10" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!22:22)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6188,7 +6222,7 @@
       </c>
       <c r="C11" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!23:23)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6201,7 +6235,7 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!24:24)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6791,7 +6825,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B58" t="str">
         <f>Plate!A70</f>
@@ -6804,7 +6838,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B59" t="str">
         <f>Plate!A71</f>
@@ -6817,7 +6851,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B60" t="str">
         <f>Plate!A72</f>
@@ -6830,7 +6864,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B61" t="str">
         <f>Plate!A73</f>
@@ -6843,7 +6877,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B62" t="str">
         <f>Plate!A74</f>
@@ -6856,7 +6890,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B63" t="str">
         <f>Plate!A75</f>
@@ -6869,7 +6903,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B64" t="str">
         <f>Plate!A76</f>
@@ -6882,7 +6916,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B65" t="str">
         <f>Plate!A77</f>
@@ -6895,7 +6929,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B66" t="str">
         <f>Plate!A78</f>
@@ -6908,7 +6942,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B67" t="str">
         <f>Plate!A79</f>
@@ -6921,7 +6955,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B68" t="str">
         <f>Plate!A80</f>
@@ -6934,7 +6968,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B69" t="str">
         <f>Plate!A81</f>
@@ -6947,7 +6981,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B70" t="str">
         <f>Plate!A82</f>
@@ -6960,7 +6994,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B71" t="str">
         <f>Plate!A83</f>
@@ -6973,7 +7007,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B72" t="str">
         <f>Plate!A84</f>
@@ -6986,7 +7020,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B73" t="str">
         <f>Plate!A85</f>
@@ -6999,7 +7033,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B74" t="str">
         <f>Plate!A86</f>
@@ -7012,7 +7046,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B75" t="str">
         <f>Plate!A87</f>
@@ -7025,7 +7059,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B76" t="str">
         <f>Plate!A88</f>
@@ -7038,7 +7072,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B77" t="str">
         <f>Plate!A89</f>
@@ -7051,7 +7085,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B78" t="str">
         <f>Plate!A90</f>
@@ -7064,7 +7098,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B79" t="str">
         <f>Plate!A91</f>
@@ -7077,7 +7111,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B80" t="str">
         <f>Plate!A92</f>
@@ -7090,7 +7124,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B81" t="str">
         <f>Plate!A93</f>
@@ -7103,7 +7137,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B82" t="str">
         <f>Plate!A94</f>
@@ -7116,7 +7150,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B83" t="str">
         <f>Plate!A95</f>
@@ -7129,7 +7163,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B84" t="str">
         <f>Plate!A96</f>
@@ -7142,7 +7176,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B85" t="str">
         <f>Plate!A97</f>
@@ -7155,7 +7189,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B86" t="str">
         <f>Plate!A98</f>
@@ -7168,7 +7202,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B87" t="str">
         <f>Plate!A99</f>
@@ -7181,7 +7215,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B88" t="str">
         <f>Plate!A100</f>
@@ -7194,7 +7228,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B89" t="str">
         <f>Plate!A101</f>
@@ -7207,7 +7241,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B90" t="str">
         <f>Plate!A102</f>
@@ -7220,7 +7254,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B91" t="str">
         <f>Plate!A103</f>
@@ -7233,7 +7267,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B92" t="str">
         <f>Plate!A104</f>
@@ -7246,7 +7280,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B93" t="str">
         <f>Plate!A105</f>
@@ -7259,7 +7293,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B94" t="str">
         <f>Plate!A106</f>
@@ -7272,7 +7306,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B95" t="str">
         <f>Plate!A107</f>
@@ -7285,7 +7319,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B96" t="str">
         <f>Plate!A108</f>
@@ -7298,7 +7332,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B97" t="str">
         <f>Plate!A109</f>
@@ -7337,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7382,7 +7416,7 @@
       </c>
       <c r="H2" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A2)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -7409,7 +7443,7 @@
       </c>
       <c r="H3" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A3)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7436,7 +7470,7 @@
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A4)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -8003,7 +8037,7 @@
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A25)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -8030,7 +8064,7 @@
       </c>
       <c r="H26" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A26)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -8057,7 +8091,7 @@
       </c>
       <c r="H27" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A27)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -8084,7 +8118,7 @@
       </c>
       <c r="H28" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A28)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -8111,7 +8145,7 @@
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A29)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -8138,7 +8172,7 @@
       </c>
       <c r="H30" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A30)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -8165,7 +8199,7 @@
       </c>
       <c r="H31" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A31)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -8192,7 +8226,7 @@
       </c>
       <c r="H32" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A32)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -8219,7 +8253,7 @@
       </c>
       <c r="H33" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A33)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -8246,7 +8280,7 @@
       </c>
       <c r="H34" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A34)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -8273,7 +8307,7 @@
       </c>
       <c r="H35" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A35)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -8300,7 +8334,7 @@
       </c>
       <c r="H36" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A36)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -8327,7 +8361,7 @@
       </c>
       <c r="H37" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A37)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -8354,7 +8388,7 @@
       </c>
       <c r="H38" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A38)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -8381,7 +8415,7 @@
       </c>
       <c r="H39" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A39)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -8408,7 +8442,7 @@
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A40)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -8435,7 +8469,7 @@
       </c>
       <c r="H41" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A41)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -8462,7 +8496,7 @@
       </c>
       <c r="H42" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A42)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -8489,7 +8523,7 @@
       </c>
       <c r="H43" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A43)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -8516,7 +8550,7 @@
       </c>
       <c r="H44" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A44)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -8543,7 +8577,7 @@
       </c>
       <c r="H45" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A45)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -8570,7 +8604,7 @@
       </c>
       <c r="H46" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A46)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -8597,7 +8631,7 @@
       </c>
       <c r="H47" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A47)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -8624,7 +8658,7 @@
       </c>
       <c r="H48" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A48)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -8651,7 +8685,7 @@
       </c>
       <c r="H49" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A49)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -8678,7 +8712,7 @@
       </c>
       <c r="H50" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A50)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -8705,7 +8739,7 @@
       </c>
       <c r="H51" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A51)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -8732,7 +8766,7 @@
       </c>
       <c r="H52" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A52)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -8759,7 +8793,7 @@
       </c>
       <c r="H53" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A53)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -8786,7 +8820,7 @@
       </c>
       <c r="H54" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A54)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -8813,7 +8847,7 @@
       </c>
       <c r="H55" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A55)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -8840,7 +8874,7 @@
       </c>
       <c r="H56" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A56)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -8867,7 +8901,7 @@
       </c>
       <c r="H57" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A57)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -8894,7 +8928,7 @@
       </c>
       <c r="H58" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A58)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -8921,7 +8955,7 @@
       </c>
       <c r="H59" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A59)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -8948,7 +8982,7 @@
       </c>
       <c r="H60" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A60)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -8975,7 +9009,7 @@
       </c>
       <c r="H61" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A61)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -9002,7 +9036,7 @@
       </c>
       <c r="H62" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A62)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -9029,7 +9063,7 @@
       </c>
       <c r="H63" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A63)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -9056,7 +9090,7 @@
       </c>
       <c r="H64" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A64)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -9083,7 +9117,7 @@
       </c>
       <c r="H65" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A65)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -9110,7 +9144,7 @@
       </c>
       <c r="H66" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A66)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -9137,7 +9171,7 @@
       </c>
       <c r="H67" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A67)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -9164,7 +9198,7 @@
       </c>
       <c r="H68" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A68)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -9191,7 +9225,7 @@
       </c>
       <c r="H69" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A69)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -9218,7 +9252,7 @@
       </c>
       <c r="H70" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A70)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -9245,7 +9279,7 @@
       </c>
       <c r="H71" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A71)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -9272,7 +9306,7 @@
       </c>
       <c r="H72" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A72)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -9299,7 +9333,7 @@
       </c>
       <c r="H73" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A73)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -9326,7 +9360,7 @@
       </c>
       <c r="H74" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A74)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -9353,7 +9387,7 @@
       </c>
       <c r="H75" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A75)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -9380,7 +9414,7 @@
       </c>
       <c r="H76" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A76)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -9407,7 +9441,7 @@
       </c>
       <c r="H77" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A77)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -9434,7 +9468,7 @@
       </c>
       <c r="H78" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A78)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -9461,7 +9495,7 @@
       </c>
       <c r="H79" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A79)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -9488,7 +9522,7 @@
       </c>
       <c r="H80" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A80)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -9542,7 +9576,7 @@
       </c>
       <c r="H82" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A82)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -9569,7 +9603,7 @@
       </c>
       <c r="H83" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A83)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -9596,7 +9630,7 @@
       </c>
       <c r="H84" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A84)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -9623,7 +9657,7 @@
       </c>
       <c r="H85" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A85)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -9650,7 +9684,7 @@
       </c>
       <c r="H86" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A86)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -9677,7 +9711,7 @@
       </c>
       <c r="H87" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A87)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -9704,7 +9738,7 @@
       </c>
       <c r="H88" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A88)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -9731,7 +9765,7 @@
       </c>
       <c r="H89" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A89)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -9758,7 +9792,7 @@
       </c>
       <c r="H90" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A90)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -9785,7 +9819,7 @@
       </c>
       <c r="H91" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A91)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -9812,7 +9846,7 @@
       </c>
       <c r="H92" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A92)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -9839,7 +9873,7 @@
       </c>
       <c r="H93" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A93)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -9866,7 +9900,7 @@
       </c>
       <c r="H94" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A94)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -9893,7 +9927,7 @@
       </c>
       <c r="H95" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A95)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -9920,7 +9954,7 @@
       </c>
       <c r="H96" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A96)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -9947,7 +9981,7 @@
       </c>
       <c r="H97" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A97)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
   </sheetData>
@@ -9975,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10020,7 +10054,7 @@
       </c>
       <c r="H2" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A2)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -10047,7 +10081,7 @@
       </c>
       <c r="H3" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A3)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -10074,7 +10108,7 @@
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A4)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_CT2A</v>
+        <v>S01_1_1_HEK_NIH3T3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -10641,7 +10675,7 @@
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A25)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -10668,7 +10702,7 @@
       </c>
       <c r="H26" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A26)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -10695,7 +10729,7 @@
       </c>
       <c r="H27" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A27)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -10722,7 +10756,7 @@
       </c>
       <c r="H28" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A28)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -10749,7 +10783,7 @@
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A29)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -10776,7 +10810,7 @@
       </c>
       <c r="H30" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A30)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -10803,7 +10837,7 @@
       </c>
       <c r="H31" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A31)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -10830,7 +10864,7 @@
       </c>
       <c r="H32" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A32)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -10857,7 +10891,7 @@
       </c>
       <c r="H33" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A33)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -10884,7 +10918,7 @@
       </c>
       <c r="H34" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A34)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -10911,7 +10945,7 @@
       </c>
       <c r="H35" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A35)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -10938,7 +10972,7 @@
       </c>
       <c r="H36" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A36)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -10965,7 +10999,7 @@
       </c>
       <c r="H37" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A37)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -10992,7 +11026,7 @@
       </c>
       <c r="H38" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A38)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -11019,7 +11053,7 @@
       </c>
       <c r="H39" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A39)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_Tcell_LN</v>
+        <v>S03_1_0_PBMC</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -11046,7 +11080,7 @@
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A40)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -11073,7 +11107,7 @@
       </c>
       <c r="H41" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A41)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -11100,7 +11134,7 @@
       </c>
       <c r="H42" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A42)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -11127,7 +11161,7 @@
       </c>
       <c r="H43" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A43)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -11154,7 +11188,7 @@
       </c>
       <c r="H44" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A44)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -11181,7 +11215,7 @@
       </c>
       <c r="H45" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A45)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_SHP77_Plate1</v>
+        <v>S04_1_0_Tcell_LN</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -11208,7 +11242,7 @@
       </c>
       <c r="H46" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A46)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -11235,7 +11269,7 @@
       </c>
       <c r="H47" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A47)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -11262,7 +11296,7 @@
       </c>
       <c r="H48" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A48)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -11289,7 +11323,7 @@
       </c>
       <c r="H49" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A49)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_NICH82_Plate1</v>
+        <v>S05_1_0_Tcell</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -11316,7 +11350,7 @@
       </c>
       <c r="H50" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A50)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -11343,7 +11377,7 @@
       </c>
       <c r="H51" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A51)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -11370,7 +11404,7 @@
       </c>
       <c r="H52" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A52)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -11397,7 +11431,7 @@
       </c>
       <c r="H53" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A53)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -11424,7 +11458,7 @@
       </c>
       <c r="H54" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A54)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -11451,7 +11485,7 @@
       </c>
       <c r="H55" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A55)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_SHP77_Plate2</v>
+        <v>S06_1_0_Macrophage_LN</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -11478,7 +11512,7 @@
       </c>
       <c r="H56" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A56)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -11505,7 +11539,7 @@
       </c>
       <c r="H57" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A57)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -11532,7 +11566,7 @@
       </c>
       <c r="H58" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A58)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -11559,7 +11593,7 @@
       </c>
       <c r="H59" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A59)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_NICH82_Plate2</v>
+        <v>S07_1_0_Macrophage</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -11586,7 +11620,7 @@
       </c>
       <c r="H60" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A60)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -11613,7 +11647,7 @@
       </c>
       <c r="H61" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A61)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -11640,7 +11674,7 @@
       </c>
       <c r="H62" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A62)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -11667,7 +11701,7 @@
       </c>
       <c r="H63" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A63)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -11694,7 +11728,7 @@
       </c>
       <c r="H64" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A64)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -11721,7 +11755,7 @@
       </c>
       <c r="H65" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A65)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -11748,7 +11782,7 @@
       </c>
       <c r="H66" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A66)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -11775,7 +11809,7 @@
       </c>
       <c r="H67" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A67)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -11802,7 +11836,7 @@
       </c>
       <c r="H68" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A68)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -11829,7 +11863,7 @@
       </c>
       <c r="H69" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A69)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -11856,7 +11890,7 @@
       </c>
       <c r="H70" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A70)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -11883,7 +11917,7 @@
       </c>
       <c r="H71" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A71)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -11910,7 +11944,7 @@
       </c>
       <c r="H72" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A72)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -11937,7 +11971,7 @@
       </c>
       <c r="H73" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A73)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -11964,7 +11998,7 @@
       </c>
       <c r="H74" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A74)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -11991,7 +12025,7 @@
       </c>
       <c r="H75" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A75)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -12018,7 +12052,7 @@
       </c>
       <c r="H76" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A76)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -12045,7 +12079,7 @@
       </c>
       <c r="H77" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A77)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -12072,7 +12106,7 @@
       </c>
       <c r="H78" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A78)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_BurnTissue</v>
+        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -12099,7 +12133,7 @@
       </c>
       <c r="H79" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A79)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -12126,7 +12160,7 @@
       </c>
       <c r="H80" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A80)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -12180,7 +12214,7 @@
       </c>
       <c r="H82" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A82)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -12207,7 +12241,7 @@
       </c>
       <c r="H83" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A83)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -12234,7 +12268,7 @@
       </c>
       <c r="H84" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A84)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -12261,7 +12295,7 @@
       </c>
       <c r="H85" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A85)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -12288,7 +12322,7 @@
       </c>
       <c r="H86" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A86)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -12315,7 +12349,7 @@
       </c>
       <c r="H87" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A87)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -12342,7 +12376,7 @@
       </c>
       <c r="H88" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A88)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -12369,7 +12403,7 @@
       </c>
       <c r="H89" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A89)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -12396,7 +12430,7 @@
       </c>
       <c r="H90" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A90)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_972</v>
+        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -12423,7 +12457,7 @@
       </c>
       <c r="H91" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A91)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -12450,7 +12484,7 @@
       </c>
       <c r="H92" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A92)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -12477,7 +12511,7 @@
       </c>
       <c r="H93" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A93)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -12504,7 +12538,7 @@
       </c>
       <c r="H94" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A94)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -12531,7 +12565,7 @@
       </c>
       <c r="H95" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A95)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -12558,7 +12592,7 @@
       </c>
       <c r="H96" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A96)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_972_LN</v>
+        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -12585,7 +12619,7 @@
       </c>
       <c r="H97" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A97)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_972_OPC_31</v>
+        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
   </sheetData>
@@ -12614,10 +12648,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -12631,16 +12665,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -12648,16 +12682,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -12665,16 +12699,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -12682,16 +12716,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C5" t="s">
         <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -12699,16 +12733,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s">
         <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -12716,16 +12750,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C7" t="s">
         <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -12733,16 +12767,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
         <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -12750,16 +12784,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C9" t="s">
         <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -12767,16 +12801,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C10" t="s">
         <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -12784,16 +12818,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C11" t="s">
         <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -12801,16 +12835,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C12" t="s">
         <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -12818,16 +12852,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -12835,16 +12869,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -12852,16 +12886,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -12869,16 +12903,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -12886,16 +12920,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -12903,16 +12937,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C18" t="s">
         <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -12920,16 +12954,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -12937,16 +12971,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C20" t="s">
         <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -12954,16 +12988,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C21" t="s">
         <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -12971,16 +13005,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C22" t="s">
         <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -12988,16 +13022,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C23" t="s">
         <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -13005,16 +13039,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C24" t="s">
         <v>329</v>
       </c>
       <c r="D24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -13022,16 +13056,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C25" t="s">
         <v>353</v>
       </c>
       <c r="D25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -13039,16 +13073,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13056,16 +13090,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -13073,16 +13107,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C28" t="s">
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -13090,16 +13124,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C29" t="s">
         <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -13107,16 +13141,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C30" t="s">
         <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -13124,16 +13158,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C31" t="s">
         <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13141,16 +13175,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C32" t="s">
         <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -13158,16 +13192,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C33" t="s">
         <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -13175,16 +13209,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C34" t="s">
         <v>278</v>
       </c>
       <c r="D34" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -13192,16 +13226,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C35" t="s">
         <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13209,16 +13243,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C36" t="s">
         <v>332</v>
       </c>
       <c r="D36" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -13226,16 +13260,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C37" t="s">
         <v>356</v>
       </c>
       <c r="D37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -13243,16 +13277,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -13260,16 +13294,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -13277,16 +13311,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C40" t="s">
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -13294,16 +13328,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C41" t="s">
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -13311,16 +13345,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C42" t="s">
         <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -13328,16 +13362,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C43" t="s">
         <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -13345,16 +13379,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C44" t="s">
         <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -13362,16 +13396,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C45" t="s">
         <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -13379,16 +13413,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C46" t="s">
         <v>282</v>
       </c>
       <c r="D46" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -13396,16 +13430,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C47" t="s">
         <v>311</v>
       </c>
       <c r="D47" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -13413,16 +13447,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C48" t="s">
         <v>335</v>
       </c>
       <c r="D48" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -13430,16 +13464,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C49" t="s">
         <v>359</v>
       </c>
       <c r="D49" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -13447,16 +13481,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -13464,16 +13498,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -13481,16 +13515,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C52" t="s">
         <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -13498,16 +13532,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C53" t="s">
         <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -13515,16 +13549,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C54" t="s">
         <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -13532,16 +13566,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C55" t="s">
         <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -13549,16 +13583,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C56" t="s">
         <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -13566,16 +13600,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C57" t="s">
         <v>254</v>
       </c>
       <c r="D57" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -13583,16 +13617,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C58" t="s">
         <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -13600,16 +13634,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C59" t="s">
         <v>314</v>
       </c>
       <c r="D59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -13617,16 +13651,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C60" t="s">
         <v>338</v>
       </c>
       <c r="D60" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -13634,16 +13668,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C61" t="s">
         <v>362</v>
       </c>
       <c r="D61" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -13651,16 +13685,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -13668,16 +13702,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -13685,16 +13719,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C64" t="s">
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -13702,16 +13736,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C65" t="s">
         <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -13719,16 +13753,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C66" t="s">
         <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -13736,16 +13770,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C67" t="s">
         <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -13753,16 +13787,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C68" t="s">
         <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -13770,16 +13804,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C69" t="s">
         <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -13787,16 +13821,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C70" t="s">
         <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -13804,16 +13838,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C71" t="s">
         <v>317</v>
       </c>
       <c r="D71" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -13821,16 +13855,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
       </c>
       <c r="D72" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -13838,16 +13872,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C73" t="s">
         <v>365</v>
       </c>
       <c r="D73" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -13855,16 +13889,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C74" t="s">
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -13872,16 +13906,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C75" t="s">
         <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -13889,16 +13923,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C76" t="s">
         <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -13906,16 +13940,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C77" t="s">
         <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -13923,16 +13957,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C78" t="s">
         <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -13940,16 +13974,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C79" t="s">
         <v>198</v>
       </c>
       <c r="D79" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -13957,16 +13991,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C80" t="s">
         <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -13974,16 +14008,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C81" t="s">
         <v>262</v>
       </c>
       <c r="D81" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -13991,16 +14025,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C82" t="s">
         <v>294</v>
       </c>
       <c r="D82" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -14008,16 +14042,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C83" t="s">
         <v>320</v>
       </c>
       <c r="D83" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -14025,16 +14059,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C84" t="s">
         <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -14042,16 +14076,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C85" t="s">
         <v>368</v>
       </c>
       <c r="D85" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -14059,16 +14093,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -14076,16 +14110,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C87" t="s">
         <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -14093,16 +14127,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -14110,16 +14144,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C89" t="s">
         <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -14127,16 +14161,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C90" t="s">
         <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -14144,16 +14178,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C91" t="s">
         <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -14161,16 +14195,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C92" t="s">
         <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -14178,16 +14212,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C93" t="s">
         <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -14195,16 +14229,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C94" t="s">
         <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -14212,16 +14246,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C95" t="s">
         <v>323</v>
       </c>
       <c r="D95" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -14229,16 +14263,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C96" t="s">
         <v>347</v>
       </c>
       <c r="D96" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -14246,16 +14280,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C97" t="s">
         <v>371</v>
       </c>
       <c r="D97" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -14263,16 +14297,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -14280,16 +14314,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C99" t="s">
         <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -14297,16 +14331,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C100" t="s">
         <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -14314,16 +14348,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C101" t="s">
         <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -14331,16 +14365,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C102" t="s">
         <v>142</v>
       </c>
       <c r="D102" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -14348,16 +14382,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C103" t="s">
         <v>174</v>
       </c>
       <c r="D103" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -14365,16 +14399,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C104" t="s">
         <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -14382,16 +14416,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C105" t="s">
         <v>238</v>
       </c>
       <c r="D105" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -14399,16 +14433,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C106" t="s">
         <v>270</v>
       </c>
       <c r="D106" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -14416,16 +14450,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C107" t="s">
         <v>302</v>
       </c>
       <c r="D107" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -14433,16 +14467,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C108" t="s">
         <v>326</v>
       </c>
       <c r="D108" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -14450,16 +14484,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C109" t="s">
         <v>350</v>
       </c>
       <c r="D109" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -14467,16 +14501,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -14484,16 +14518,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C111" t="s">
         <v>50</v>
       </c>
       <c r="D111" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -14501,16 +14535,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C112" t="s">
         <v>82</v>
       </c>
       <c r="D112" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -14518,16 +14552,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -14535,16 +14569,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C114" t="s">
         <v>146</v>
       </c>
       <c r="D114" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -14552,16 +14586,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C115" t="s">
         <v>178</v>
       </c>
       <c r="D115" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -14569,16 +14603,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C116" t="s">
         <v>210</v>
       </c>
       <c r="D116" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -14586,16 +14620,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C117" t="s">
         <v>242</v>
       </c>
       <c r="D117" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -14603,16 +14637,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C118" t="s">
         <v>274</v>
       </c>
       <c r="D118" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -14620,16 +14654,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C119" t="s">
         <v>305</v>
       </c>
       <c r="D119" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -14637,16 +14671,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C120" t="s">
         <v>329</v>
       </c>
       <c r="D120" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -14654,16 +14688,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C121" t="s">
         <v>353</v>
       </c>
       <c r="D121" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -14671,16 +14705,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -14688,16 +14722,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C123" t="s">
         <v>54</v>
       </c>
       <c r="D123" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -14705,16 +14739,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C124" t="s">
         <v>86</v>
       </c>
       <c r="D124" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -14722,16 +14756,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C125" t="s">
         <v>118</v>
       </c>
       <c r="D125" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -14739,16 +14773,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C126" t="s">
         <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -14756,16 +14790,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C127" t="s">
         <v>182</v>
       </c>
       <c r="D127" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -14773,16 +14807,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C128" t="s">
         <v>214</v>
       </c>
       <c r="D128" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -14790,16 +14824,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C129" t="s">
         <v>246</v>
       </c>
       <c r="D129" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -14807,16 +14841,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C130" t="s">
         <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -14824,16 +14858,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C131" t="s">
         <v>308</v>
       </c>
       <c r="D131" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -14841,16 +14875,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C132" t="s">
         <v>332</v>
       </c>
       <c r="D132" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -14858,16 +14892,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C133" t="s">
         <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -14875,16 +14909,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -14892,16 +14926,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C135" t="s">
         <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -14909,16 +14943,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C136" t="s">
         <v>90</v>
       </c>
       <c r="D136" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -14926,16 +14960,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C137" t="s">
         <v>122</v>
       </c>
       <c r="D137" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -14943,16 +14977,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C138" t="s">
         <v>154</v>
       </c>
       <c r="D138" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -14960,16 +14994,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C139" t="s">
         <v>186</v>
       </c>
       <c r="D139" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -14977,16 +15011,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C140" t="s">
         <v>218</v>
       </c>
       <c r="D140" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -14994,16 +15028,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C141" t="s">
         <v>250</v>
       </c>
       <c r="D141" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -15011,16 +15045,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C142" t="s">
         <v>282</v>
       </c>
       <c r="D142" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -15028,16 +15062,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C143" t="s">
         <v>311</v>
       </c>
       <c r="D143" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -15045,16 +15079,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C144" t="s">
         <v>335</v>
       </c>
       <c r="D144" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -15062,16 +15096,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C145" t="s">
         <v>359</v>
       </c>
       <c r="D145" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -15079,16 +15113,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C146" t="s">
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -15096,16 +15130,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C147" t="s">
         <v>62</v>
       </c>
       <c r="D147" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -15113,16 +15147,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C148" t="s">
         <v>94</v>
       </c>
       <c r="D148" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -15130,16 +15164,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C149" t="s">
         <v>126</v>
       </c>
       <c r="D149" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -15147,16 +15181,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C150" t="s">
         <v>158</v>
       </c>
       <c r="D150" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -15164,16 +15198,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C151" t="s">
         <v>190</v>
       </c>
       <c r="D151" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -15181,16 +15215,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C152" t="s">
         <v>222</v>
       </c>
       <c r="D152" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -15198,16 +15232,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C153" t="s">
         <v>254</v>
       </c>
       <c r="D153" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -15215,16 +15249,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C154" t="s">
         <v>286</v>
       </c>
       <c r="D154" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -15232,16 +15266,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C155" t="s">
         <v>314</v>
       </c>
       <c r="D155" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -15249,16 +15283,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C156" t="s">
         <v>338</v>
       </c>
       <c r="D156" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -15266,16 +15300,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C157" t="s">
         <v>362</v>
       </c>
       <c r="D157" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -15283,16 +15317,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C158" t="s">
         <v>31</v>
       </c>
       <c r="D158" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -15300,16 +15334,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C159" t="s">
         <v>66</v>
       </c>
       <c r="D159" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -15317,16 +15351,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C160" t="s">
         <v>98</v>
       </c>
       <c r="D160" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -15334,16 +15368,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C161" t="s">
         <v>130</v>
       </c>
       <c r="D161" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -15351,16 +15385,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C162" t="s">
         <v>162</v>
       </c>
       <c r="D162" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -15368,16 +15402,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C163" t="s">
         <v>194</v>
       </c>
       <c r="D163" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -15385,16 +15419,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C164" t="s">
         <v>226</v>
       </c>
       <c r="D164" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -15402,16 +15436,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C165" t="s">
         <v>258</v>
       </c>
       <c r="D165" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -15419,16 +15453,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C166" t="s">
         <v>290</v>
       </c>
       <c r="D166" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -15436,16 +15470,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C167" t="s">
         <v>317</v>
       </c>
       <c r="D167" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -15453,16 +15487,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C168" t="s">
         <v>341</v>
       </c>
       <c r="D168" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -15470,16 +15504,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C169" t="s">
         <v>365</v>
       </c>
       <c r="D169" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -15487,16 +15521,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
       </c>
       <c r="D170" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -15504,16 +15538,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C171" t="s">
         <v>70</v>
       </c>
       <c r="D171" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -15521,16 +15555,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C172" t="s">
         <v>102</v>
       </c>
       <c r="D172" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -15538,16 +15572,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C173" t="s">
         <v>134</v>
       </c>
       <c r="D173" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -15555,16 +15589,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C174" t="s">
         <v>166</v>
       </c>
       <c r="D174" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -15572,16 +15606,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C175" t="s">
         <v>198</v>
       </c>
       <c r="D175" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -15589,16 +15623,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C176" t="s">
         <v>230</v>
       </c>
       <c r="D176" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -15606,16 +15640,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C177" t="s">
         <v>262</v>
       </c>
       <c r="D177" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -15623,16 +15657,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C178" t="s">
         <v>294</v>
       </c>
       <c r="D178" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -15640,16 +15674,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C179" t="s">
         <v>320</v>
       </c>
       <c r="D179" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -15657,16 +15691,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C180" t="s">
         <v>344</v>
       </c>
       <c r="D180" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -15674,16 +15708,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C181" t="s">
         <v>368</v>
       </c>
       <c r="D181" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -15691,16 +15725,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C182" t="s">
         <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -15708,16 +15742,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C183" t="s">
         <v>74</v>
       </c>
       <c r="D183" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -15725,16 +15759,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C184" t="s">
         <v>106</v>
       </c>
       <c r="D184" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -15742,16 +15776,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C185" t="s">
         <v>138</v>
       </c>
       <c r="D185" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -15759,16 +15793,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C186" t="s">
         <v>170</v>
       </c>
       <c r="D186" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -15776,16 +15810,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C187" t="s">
         <v>202</v>
       </c>
       <c r="D187" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -15793,16 +15827,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C188" t="s">
         <v>234</v>
       </c>
       <c r="D188" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -15810,16 +15844,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C189" t="s">
         <v>266</v>
       </c>
       <c r="D189" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -15827,16 +15861,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C190" t="s">
         <v>298</v>
       </c>
       <c r="D190" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -15844,16 +15878,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C191" t="s">
         <v>323</v>
       </c>
       <c r="D191" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -15861,16 +15895,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C192" t="s">
         <v>347</v>
       </c>
       <c r="D192" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -15878,16 +15912,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C193" t="s">
         <v>371</v>
       </c>
       <c r="D193" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -15895,16 +15929,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -15912,16 +15946,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C195" t="s">
         <v>46</v>
       </c>
       <c r="D195" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -15929,16 +15963,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C196" t="s">
         <v>78</v>
       </c>
       <c r="D196" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -15946,16 +15980,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C197" t="s">
         <v>110</v>
       </c>
       <c r="D197" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -15963,16 +15997,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C198" t="s">
         <v>142</v>
       </c>
       <c r="D198" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -15980,16 +16014,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C199" t="s">
         <v>174</v>
       </c>
       <c r="D199" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -15997,16 +16031,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C200" t="s">
         <v>206</v>
       </c>
       <c r="D200" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -16014,16 +16048,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C201" t="s">
         <v>238</v>
       </c>
       <c r="D201" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -16031,16 +16065,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C202" t="s">
         <v>270</v>
       </c>
       <c r="D202" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -16048,16 +16082,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C203" t="s">
         <v>302</v>
       </c>
       <c r="D203" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -16065,16 +16099,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C204" t="s">
         <v>326</v>
       </c>
       <c r="D204" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -16082,16 +16116,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C205" t="s">
         <v>350</v>
       </c>
       <c r="D205" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -16099,16 +16133,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C206" t="s">
         <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -16116,16 +16150,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C207" t="s">
         <v>50</v>
       </c>
       <c r="D207" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -16133,16 +16167,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C208" t="s">
         <v>82</v>
       </c>
       <c r="D208" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -16150,16 +16184,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C209" t="s">
         <v>114</v>
       </c>
       <c r="D209" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -16167,16 +16201,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C210" t="s">
         <v>146</v>
       </c>
       <c r="D210" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -16184,16 +16218,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C211" t="s">
         <v>178</v>
       </c>
       <c r="D211" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -16201,16 +16235,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C212" t="s">
         <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -16218,16 +16252,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C213" t="s">
         <v>242</v>
       </c>
       <c r="D213" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -16235,16 +16269,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C214" t="s">
         <v>274</v>
       </c>
       <c r="D214" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -16252,16 +16286,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C215" t="s">
         <v>305</v>
       </c>
       <c r="D215" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -16269,16 +16303,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C216" t="s">
         <v>329</v>
       </c>
       <c r="D216" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -16286,16 +16320,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C217" t="s">
         <v>353</v>
       </c>
       <c r="D217" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -16303,16 +16337,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C218" t="s">
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -16320,16 +16354,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C219" t="s">
         <v>54</v>
       </c>
       <c r="D219" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -16337,16 +16371,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C220" t="s">
         <v>86</v>
       </c>
       <c r="D220" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -16354,16 +16388,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C221" t="s">
         <v>118</v>
       </c>
       <c r="D221" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -16371,16 +16405,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C222" t="s">
         <v>150</v>
       </c>
       <c r="D222" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -16388,16 +16422,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C223" t="s">
         <v>182</v>
       </c>
       <c r="D223" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -16405,16 +16439,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C224" t="s">
         <v>214</v>
       </c>
       <c r="D224" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -16422,16 +16456,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C225" t="s">
         <v>246</v>
       </c>
       <c r="D225" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -16439,16 +16473,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C226" t="s">
         <v>278</v>
       </c>
       <c r="D226" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -16456,16 +16490,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C227" t="s">
         <v>308</v>
       </c>
       <c r="D227" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -16473,16 +16507,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C228" t="s">
         <v>332</v>
       </c>
       <c r="D228" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -16490,16 +16524,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C229" t="s">
         <v>356</v>
       </c>
       <c r="D229" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -16507,16 +16541,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -16524,16 +16558,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C231" t="s">
         <v>58</v>
       </c>
       <c r="D231" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -16541,16 +16575,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C232" t="s">
         <v>90</v>
       </c>
       <c r="D232" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -16558,16 +16592,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C233" t="s">
         <v>122</v>
       </c>
       <c r="D233" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -16575,16 +16609,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C234" t="s">
         <v>154</v>
       </c>
       <c r="D234" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -16592,16 +16626,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C235" t="s">
         <v>186</v>
       </c>
       <c r="D235" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -16609,16 +16643,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C236" t="s">
         <v>218</v>
       </c>
       <c r="D236" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -16626,16 +16660,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C237" t="s">
         <v>250</v>
       </c>
       <c r="D237" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -16643,16 +16677,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C238" t="s">
         <v>282</v>
       </c>
       <c r="D238" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -16660,16 +16694,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C239" t="s">
         <v>311</v>
       </c>
       <c r="D239" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -16677,16 +16711,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C240" t="s">
         <v>335</v>
       </c>
       <c r="D240" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -16694,16 +16728,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -16711,16 +16745,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C242" t="s">
         <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -16728,16 +16762,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C243" t="s">
         <v>62</v>
       </c>
       <c r="D243" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -16745,16 +16779,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C244" t="s">
         <v>94</v>
       </c>
       <c r="D244" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -16762,16 +16796,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C245" t="s">
         <v>126</v>
       </c>
       <c r="D245" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -16779,16 +16813,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C246" t="s">
         <v>158</v>
       </c>
       <c r="D246" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -16796,16 +16830,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C247" t="s">
         <v>190</v>
       </c>
       <c r="D247" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -16813,16 +16847,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C248" t="s">
         <v>222</v>
       </c>
       <c r="D248" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -16830,16 +16864,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C249" t="s">
         <v>254</v>
       </c>
       <c r="D249" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -16847,16 +16881,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C250" t="s">
         <v>286</v>
       </c>
       <c r="D250" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -16864,16 +16898,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C251" t="s">
         <v>314</v>
       </c>
       <c r="D251" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -16881,16 +16915,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C252" t="s">
         <v>338</v>
       </c>
       <c r="D252" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -16898,16 +16932,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C253" t="s">
         <v>362</v>
       </c>
       <c r="D253" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -16915,16 +16949,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C254" t="s">
         <v>31</v>
       </c>
       <c r="D254" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -16932,16 +16966,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C255" t="s">
         <v>66</v>
       </c>
       <c r="D255" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -16949,16 +16983,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C256" t="s">
         <v>98</v>
       </c>
       <c r="D256" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -16966,16 +17000,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C257" t="s">
         <v>130</v>
       </c>
       <c r="D257" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -16983,16 +17017,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C258" t="s">
         <v>162</v>
       </c>
       <c r="D258" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -17000,16 +17034,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C259" t="s">
         <v>194</v>
       </c>
       <c r="D259" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -17017,16 +17051,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C260" t="s">
         <v>226</v>
       </c>
       <c r="D260" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -17034,16 +17068,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C261" t="s">
         <v>258</v>
       </c>
       <c r="D261" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -17051,16 +17085,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C262" t="s">
         <v>290</v>
       </c>
       <c r="D262" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -17068,16 +17102,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C263" t="s">
         <v>317</v>
       </c>
       <c r="D263" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -17085,16 +17119,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C264" t="s">
         <v>341</v>
       </c>
       <c r="D264" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -17102,16 +17136,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C265" t="s">
         <v>365</v>
       </c>
       <c r="D265" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -17119,16 +17153,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C266" t="s">
         <v>36</v>
       </c>
       <c r="D266" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -17136,16 +17170,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C267" t="s">
         <v>70</v>
       </c>
       <c r="D267" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -17153,16 +17187,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C268" t="s">
         <v>102</v>
       </c>
       <c r="D268" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -17170,16 +17204,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C269" t="s">
         <v>134</v>
       </c>
       <c r="D269" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -17187,16 +17221,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C270" t="s">
         <v>166</v>
       </c>
       <c r="D270" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -17204,16 +17238,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C271" t="s">
         <v>198</v>
       </c>
       <c r="D271" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -17221,16 +17255,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C272" t="s">
         <v>230</v>
       </c>
       <c r="D272" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -17238,16 +17272,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C273" t="s">
         <v>262</v>
       </c>
       <c r="D273" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -17255,16 +17289,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C274" t="s">
         <v>294</v>
       </c>
       <c r="D274" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -17272,16 +17306,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C275" t="s">
         <v>320</v>
       </c>
       <c r="D275" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -17289,16 +17323,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C276" t="s">
         <v>344</v>
       </c>
       <c r="D276" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -17306,16 +17340,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C277" t="s">
         <v>368</v>
       </c>
       <c r="D277" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -17323,16 +17357,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C278" t="s">
         <v>41</v>
       </c>
       <c r="D278" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -17340,16 +17374,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C279" t="s">
         <v>74</v>
       </c>
       <c r="D279" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -17357,16 +17391,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C280" t="s">
         <v>106</v>
       </c>
       <c r="D280" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -17374,16 +17408,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C281" t="s">
         <v>138</v>
       </c>
       <c r="D281" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -17391,16 +17425,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C282" t="s">
         <v>170</v>
       </c>
       <c r="D282" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -17408,16 +17442,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C283" t="s">
         <v>202</v>
       </c>
       <c r="D283" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -17425,16 +17459,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C284" t="s">
         <v>234</v>
       </c>
       <c r="D284" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -17442,16 +17476,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C285" t="s">
         <v>266</v>
       </c>
       <c r="D285" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -17459,16 +17493,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C286" t="s">
         <v>298</v>
       </c>
       <c r="D286" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -17476,16 +17510,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C287" t="s">
         <v>323</v>
       </c>
       <c r="D287" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -17493,16 +17527,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C288" t="s">
         <v>347</v>
       </c>
       <c r="D288" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -17510,16 +17544,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C289" t="s">
         <v>371</v>
       </c>
       <c r="D289" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -17549,770 +17583,770 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
   </sheetData>

--- a/input/Barcodes.xlsx
+++ b/input/Barcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD68AA64-BF0B-4C0C-974E-DA52DA3F10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD563A9-DD38-4FA9-8310-00FEE26DC4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="2700" windowWidth="23040" windowHeight="12060" xr2:uid="{9F93A3DF-D9A6-4749-B10D-4F870D016F2F}"/>
+    <workbookView xWindow="2906" yWindow="2383" windowWidth="17957" windowHeight="13183" xr2:uid="{9F93A3DF-D9A6-4749-B10D-4F870D016F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1495">
   <si>
     <t>NO</t>
   </si>
@@ -4610,12 +4610,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4990,15 +4989,15 @@
   <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5372,14 +5371,14 @@
       <c r="L9" t="s">
         <v>576</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" t="s">
         <v>575</v>
       </c>
       <c r="O9" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1488</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>567</v>
       </c>
@@ -5412,13 +5411,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F14" t="s">
         <v>599</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>568</v>
       </c>
@@ -5429,13 +5431,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" t="s">
         <v>1484</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>569</v>
       </c>
@@ -5446,10 +5451,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>569</v>
+      </c>
+      <c r="F16" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>570</v>
       </c>
@@ -5460,13 +5468,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>570</v>
+      </c>
+      <c r="F17" t="s">
         <v>1486</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>571</v>
       </c>
@@ -5477,10 +5488,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
+        <v>571</v>
+      </c>
+      <c r="F18" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>572</v>
       </c>
@@ -5491,13 +5505,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
+        <v>572</v>
+      </c>
+      <c r="F19" t="s">
         <v>1493</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>573</v>
       </c>
@@ -5508,10 +5525,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
+        <v>573</v>
+      </c>
+      <c r="F20" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>574</v>
       </c>
@@ -5522,19 +5542,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
+        <v>574</v>
+      </c>
+      <c r="F21" t="s">
         <v>1486</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>1491</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>1492</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>575</v>
       </c>
@@ -5545,19 +5568,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
+        <v>575</v>
+      </c>
+      <c r="F22" t="s">
         <v>1486</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>1491</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>1492</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>576</v>
       </c>
@@ -5568,19 +5594,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F23" t="s">
         <v>1493</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>1491</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>1492</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>577</v>
       </c>
@@ -5591,439 +5620,442 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
+        <v>577</v>
+      </c>
+      <c r="F24" t="s">
         <v>1493</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>1491</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>1492</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>1437</v>
       </c>
@@ -6035,19 +6067,19 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M9 F11 E14:F15 E17:F17 E16:E18 E23:F24 E19:F19">
+  <conditionalFormatting sqref="B2:M9 F11 F14:G15 F16:F18 F17:G17 F19:G19">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>ISODD(VALUE(RIGHT(B2, LEN(B2)-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISODD(VALUE(RIGHT(E20, LEN(E20)-1)))</formula>
+      <formula>ISODD(VALUE(RIGHT(F20, LEN(F20)-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F22">
+  <conditionalFormatting sqref="F21:G24">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISODD(VALUE(RIGHT(E21, LEN(E21)-1)))</formula>
+      <formula>ISODD(VALUE(RIGHT(F21, LEN(F21)-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6062,9 +6094,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.23046875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6079,12 +6111,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1489</v>
       </c>
@@ -6095,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6105,10 +6137,10 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!14:14)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -6118,10 +6150,10 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!15:15)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -6131,10 +6163,10 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!16:16)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -6144,10 +6176,10 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!17:17)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -6157,10 +6189,10 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!18:18)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -6170,10 +6202,10 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!19:19)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -6183,10 +6215,10 @@
       </c>
       <c r="C8" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!20:20)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -6196,10 +6228,10 @@
       </c>
       <c r="C9" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!21:21)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -6209,10 +6241,10 @@
       </c>
       <c r="C10" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!22:22)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -6222,10 +6254,10 @@
       </c>
       <c r="C11" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!23:23)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -6235,10 +6267,10 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.TEXTJOIN("_", TRUE, Plate!24:24)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -6251,7 +6283,7 @@
         <v>S12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -6264,7 +6296,7 @@
         <v>S13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -6277,7 +6309,7 @@
         <v>S14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>246</v>
       </c>
@@ -6290,7 +6322,7 @@
         <v>S15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -6303,7 +6335,7 @@
         <v>S16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -6316,7 +6348,7 @@
         <v>S17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -6329,7 +6361,7 @@
         <v>S18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -6342,7 +6374,7 @@
         <v>S19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -6355,7 +6387,7 @@
         <v>S20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -6368,7 +6400,7 @@
         <v>S21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -6381,7 +6413,7 @@
         <v>S22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -6394,7 +6426,7 @@
         <v>S23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>282</v>
       </c>
@@ -6407,7 +6439,7 @@
         <v>S24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -6420,7 +6452,7 @@
         <v>S25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -6433,7 +6465,7 @@
         <v>S26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -6446,7 +6478,7 @@
         <v>S27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -6459,7 +6491,7 @@
         <v>S28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -6472,7 +6504,7 @@
         <v>S29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -6485,7 +6517,7 @@
         <v>S30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>254</v>
       </c>
@@ -6498,7 +6530,7 @@
         <v>S31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -6511,7 +6543,7 @@
         <v>S32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -6524,7 +6556,7 @@
         <v>S33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -6537,7 +6569,7 @@
         <v>S34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -6550,7 +6582,7 @@
         <v>S35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -6563,7 +6595,7 @@
         <v>S36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -6576,7 +6608,7 @@
         <v>S37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -6589,7 +6621,7 @@
         <v>S38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>258</v>
       </c>
@@ -6602,7 +6634,7 @@
         <v>S39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -6615,7 +6647,7 @@
         <v>S40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -6628,7 +6660,7 @@
         <v>S41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -6641,7 +6673,7 @@
         <v>S42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -6654,7 +6686,7 @@
         <v>S43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -6667,7 +6699,7 @@
         <v>S44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -6680,7 +6712,7 @@
         <v>S45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>230</v>
       </c>
@@ -6693,7 +6725,7 @@
         <v>S46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>262</v>
       </c>
@@ -6706,7 +6738,7 @@
         <v>S47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -6719,7 +6751,7 @@
         <v>S48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -6732,7 +6764,7 @@
         <v>S49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -6745,7 +6777,7 @@
         <v>S50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -6758,7 +6790,7 @@
         <v>S51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -6771,7 +6803,7 @@
         <v>S52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -6784,7 +6816,7 @@
         <v>S53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>234</v>
       </c>
@@ -6797,7 +6829,7 @@
         <v>S54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>266</v>
       </c>
@@ -6810,7 +6842,7 @@
         <v>S55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>298</v>
       </c>
@@ -6823,7 +6855,7 @@
         <v>S56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>1444</v>
       </c>
@@ -6836,7 +6868,7 @@
         <v>S57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>1445</v>
       </c>
@@ -6849,7 +6881,7 @@
         <v>S58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>1446</v>
       </c>
@@ -6862,7 +6894,7 @@
         <v>S59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>1447</v>
       </c>
@@ -6875,7 +6907,7 @@
         <v>S60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>1448</v>
       </c>
@@ -6888,7 +6920,7 @@
         <v>S61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>1449</v>
       </c>
@@ -6901,7 +6933,7 @@
         <v>S62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>1450</v>
       </c>
@@ -6914,7 +6946,7 @@
         <v>S63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>1451</v>
       </c>
@@ -6927,7 +6959,7 @@
         <v>S64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>1452</v>
       </c>
@@ -6940,7 +6972,7 @@
         <v>S65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>1453</v>
       </c>
@@ -6953,7 +6985,7 @@
         <v>S66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>1454</v>
       </c>
@@ -6966,7 +6998,7 @@
         <v>S67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>1455</v>
       </c>
@@ -6979,7 +7011,7 @@
         <v>S68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>1456</v>
       </c>
@@ -6992,7 +7024,7 @@
         <v>S69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>1457</v>
       </c>
@@ -7005,7 +7037,7 @@
         <v>S70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>1458</v>
       </c>
@@ -7018,7 +7050,7 @@
         <v>S71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>1459</v>
       </c>
@@ -7031,7 +7063,7 @@
         <v>S72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>1460</v>
       </c>
@@ -7044,7 +7076,7 @@
         <v>S73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>1461</v>
       </c>
@@ -7057,7 +7089,7 @@
         <v>S74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>1462</v>
       </c>
@@ -7070,7 +7102,7 @@
         <v>S75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>1463</v>
       </c>
@@ -7083,7 +7115,7 @@
         <v>S76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>1464</v>
       </c>
@@ -7096,7 +7128,7 @@
         <v>S77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>1465</v>
       </c>
@@ -7109,7 +7141,7 @@
         <v>S78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>1466</v>
       </c>
@@ -7122,7 +7154,7 @@
         <v>S79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>1467</v>
       </c>
@@ -7135,7 +7167,7 @@
         <v>S80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>1468</v>
       </c>
@@ -7148,7 +7180,7 @@
         <v>S81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>1469</v>
       </c>
@@ -7161,7 +7193,7 @@
         <v>S82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>1470</v>
       </c>
@@ -7174,7 +7206,7 @@
         <v>S83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>1471</v>
       </c>
@@ -7187,7 +7219,7 @@
         <v>S84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>1472</v>
       </c>
@@ -7200,7 +7232,7 @@
         <v>S85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>1473</v>
       </c>
@@ -7213,7 +7245,7 @@
         <v>S86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>1474</v>
       </c>
@@ -7226,7 +7258,7 @@
         <v>S87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>1475</v>
       </c>
@@ -7239,7 +7271,7 @@
         <v>S88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>1476</v>
       </c>
@@ -7252,7 +7284,7 @@
         <v>S89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>1477</v>
       </c>
@@ -7265,7 +7297,7 @@
         <v>S90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>1478</v>
       </c>
@@ -7278,7 +7310,7 @@
         <v>S91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>1479</v>
       </c>
@@ -7291,7 +7323,7 @@
         <v>S92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>1480</v>
       </c>
@@ -7304,7 +7336,7 @@
         <v>S93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>1481</v>
       </c>
@@ -7317,7 +7349,7 @@
         <v>S94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>1482</v>
       </c>
@@ -7330,7 +7362,7 @@
         <v>S95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>1483</v>
       </c>
@@ -7357,16 +7389,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="1" max="2" width="4.69140625" customWidth="1"/>
+    <col min="3" max="3" width="25.765625" customWidth="1"/>
+    <col min="4" max="4" width="12.69140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.69140625" customWidth="1"/>
+    <col min="7" max="7" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7392,7 +7424,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7416,10 +7448,10 @@
       </c>
       <c r="H2" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A2)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>13</v>
       </c>
@@ -7443,10 +7475,10 @@
       </c>
       <c r="H3" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A3)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>25</v>
       </c>
@@ -7470,10 +7502,10 @@
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A4)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>37</v>
       </c>
@@ -7497,10 +7529,10 @@
       </c>
       <c r="H5" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A5)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>49</v>
       </c>
@@ -7524,10 +7556,10 @@
       </c>
       <c r="H6" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A6)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>61</v>
       </c>
@@ -7551,10 +7583,10 @@
       </c>
       <c r="H7" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A7)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>73</v>
       </c>
@@ -7578,10 +7610,10 @@
       </c>
       <c r="H8" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A8)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>85</v>
       </c>
@@ -7605,10 +7637,10 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A9)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7632,10 +7664,10 @@
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A10)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>14</v>
       </c>
@@ -7659,10 +7691,10 @@
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A11)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>26</v>
       </c>
@@ -7686,10 +7718,10 @@
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A12)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>38</v>
       </c>
@@ -7713,10 +7745,10 @@
       </c>
       <c r="H13" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A13)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>50</v>
       </c>
@@ -7740,10 +7772,10 @@
       </c>
       <c r="H14" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A14)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>62</v>
       </c>
@@ -7767,10 +7799,10 @@
       </c>
       <c r="H15" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A15)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>74</v>
       </c>
@@ -7794,10 +7826,10 @@
       </c>
       <c r="H16" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A16)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>86</v>
       </c>
@@ -7821,10 +7853,10 @@
       </c>
       <c r="H17" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A17)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7848,10 +7880,10 @@
       </c>
       <c r="H18" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A18)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7875,10 +7907,10 @@
       </c>
       <c r="H19" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A19)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>27</v>
       </c>
@@ -7902,10 +7934,10 @@
       </c>
       <c r="H20" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A20)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>39</v>
       </c>
@@ -7929,10 +7961,10 @@
       </c>
       <c r="H21" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A21)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>51</v>
       </c>
@@ -7956,10 +7988,10 @@
       </c>
       <c r="H22" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A22)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>63</v>
       </c>
@@ -7983,10 +8015,10 @@
       </c>
       <c r="H23" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A23)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>75</v>
       </c>
@@ -8010,10 +8042,10 @@
       </c>
       <c r="H24" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A24)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>87</v>
       </c>
@@ -8037,10 +8069,10 @@
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A25)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8064,10 +8096,10 @@
       </c>
       <c r="H26" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A26)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>16</v>
       </c>
@@ -8091,10 +8123,10 @@
       </c>
       <c r="H27" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A27)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -8118,10 +8150,10 @@
       </c>
       <c r="H28" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A28)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>40</v>
       </c>
@@ -8145,10 +8177,10 @@
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A29)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>52</v>
       </c>
@@ -8172,10 +8204,10 @@
       </c>
       <c r="H30" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A30)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>64</v>
       </c>
@@ -8199,10 +8231,10 @@
       </c>
       <c r="H31" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A31)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>76</v>
       </c>
@@ -8226,10 +8258,10 @@
       </c>
       <c r="H32" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A32)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>88</v>
       </c>
@@ -8253,10 +8285,10 @@
       </c>
       <c r="H33" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A33)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>5</v>
       </c>
@@ -8280,10 +8312,10 @@
       </c>
       <c r="H34" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A34)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>17</v>
       </c>
@@ -8307,10 +8339,10 @@
       </c>
       <c r="H35" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A35)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>29</v>
       </c>
@@ -8334,10 +8366,10 @@
       </c>
       <c r="H36" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A36)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>41</v>
       </c>
@@ -8361,10 +8393,10 @@
       </c>
       <c r="H37" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A37)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>53</v>
       </c>
@@ -8388,10 +8420,10 @@
       </c>
       <c r="H38" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A38)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>65</v>
       </c>
@@ -8415,10 +8447,10 @@
       </c>
       <c r="H39" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A39)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>77</v>
       </c>
@@ -8442,10 +8474,10 @@
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A40)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>89</v>
       </c>
@@ -8469,10 +8501,10 @@
       </c>
       <c r="H41" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A41)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>6</v>
       </c>
@@ -8496,10 +8528,10 @@
       </c>
       <c r="H42" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A42)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>18</v>
       </c>
@@ -8523,10 +8555,10 @@
       </c>
       <c r="H43" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A43)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>30</v>
       </c>
@@ -8550,10 +8582,10 @@
       </c>
       <c r="H44" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A44)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>42</v>
       </c>
@@ -8577,10 +8609,10 @@
       </c>
       <c r="H45" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A45)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>54</v>
       </c>
@@ -8604,10 +8636,10 @@
       </c>
       <c r="H46" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A46)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>66</v>
       </c>
@@ -8631,10 +8663,10 @@
       </c>
       <c r="H47" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A47)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>78</v>
       </c>
@@ -8658,10 +8690,10 @@
       </c>
       <c r="H48" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A48)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>90</v>
       </c>
@@ -8685,10 +8717,10 @@
       </c>
       <c r="H49" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A49)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>7</v>
       </c>
@@ -8712,10 +8744,10 @@
       </c>
       <c r="H50" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A50)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>19</v>
       </c>
@@ -8739,10 +8771,10 @@
       </c>
       <c r="H51" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A51)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>31</v>
       </c>
@@ -8766,10 +8798,10 @@
       </c>
       <c r="H52" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A52)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>43</v>
       </c>
@@ -8793,10 +8825,10 @@
       </c>
       <c r="H53" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A53)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>55</v>
       </c>
@@ -8820,10 +8852,10 @@
       </c>
       <c r="H54" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A54)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>67</v>
       </c>
@@ -8847,10 +8879,10 @@
       </c>
       <c r="H55" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A55)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>79</v>
       </c>
@@ -8874,10 +8906,10 @@
       </c>
       <c r="H56" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A56)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>91</v>
       </c>
@@ -8901,10 +8933,10 @@
       </c>
       <c r="H57" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A57)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>8</v>
       </c>
@@ -8928,10 +8960,10 @@
       </c>
       <c r="H58" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A58)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>20</v>
       </c>
@@ -8955,10 +8987,10 @@
       </c>
       <c r="H59" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A59)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>32</v>
       </c>
@@ -8982,10 +9014,10 @@
       </c>
       <c r="H60" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A60)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>44</v>
       </c>
@@ -9009,10 +9041,10 @@
       </c>
       <c r="H61" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A61)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>56</v>
       </c>
@@ -9036,10 +9068,10 @@
       </c>
       <c r="H62" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A62)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>68</v>
       </c>
@@ -9063,10 +9095,10 @@
       </c>
       <c r="H63" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A63)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>80</v>
       </c>
@@ -9090,10 +9122,10 @@
       </c>
       <c r="H64" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A64)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>92</v>
       </c>
@@ -9117,10 +9149,10 @@
       </c>
       <c r="H65" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A65)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>9</v>
       </c>
@@ -9144,10 +9176,10 @@
       </c>
       <c r="H66" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A66)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>21</v>
       </c>
@@ -9171,10 +9203,10 @@
       </c>
       <c r="H67" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A67)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>33</v>
       </c>
@@ -9198,10 +9230,10 @@
       </c>
       <c r="H68" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A68)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>45</v>
       </c>
@@ -9225,10 +9257,10 @@
       </c>
       <c r="H69" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A69)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>57</v>
       </c>
@@ -9252,10 +9284,10 @@
       </c>
       <c r="H70" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A70)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9279,10 +9311,10 @@
       </c>
       <c r="H71" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A71)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>81</v>
       </c>
@@ -9306,10 +9338,10 @@
       </c>
       <c r="H72" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A72)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>93</v>
       </c>
@@ -9333,10 +9365,10 @@
       </c>
       <c r="H73" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A73)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>10</v>
       </c>
@@ -9360,10 +9392,10 @@
       </c>
       <c r="H74" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A74)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>22</v>
       </c>
@@ -9387,10 +9419,10 @@
       </c>
       <c r="H75" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A75)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>34</v>
       </c>
@@ -9414,10 +9446,10 @@
       </c>
       <c r="H76" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A76)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>46</v>
       </c>
@@ -9441,10 +9473,10 @@
       </c>
       <c r="H77" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A77)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>58</v>
       </c>
@@ -9468,10 +9500,10 @@
       </c>
       <c r="H78" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A78)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>70</v>
       </c>
@@ -9495,10 +9527,10 @@
       </c>
       <c r="H79" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A79)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>82</v>
       </c>
@@ -9522,10 +9554,10 @@
       </c>
       <c r="H80" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A80)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>94</v>
       </c>
@@ -9552,7 +9584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>11</v>
       </c>
@@ -9576,10 +9608,10 @@
       </c>
       <c r="H82" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A82)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>23</v>
       </c>
@@ -9603,10 +9635,10 @@
       </c>
       <c r="H83" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A83)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>35</v>
       </c>
@@ -9630,10 +9662,10 @@
       </c>
       <c r="H84" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A84)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>47</v>
       </c>
@@ -9657,10 +9689,10 @@
       </c>
       <c r="H85" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A85)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>59</v>
       </c>
@@ -9684,10 +9716,10 @@
       </c>
       <c r="H86" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A86)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>71</v>
       </c>
@@ -9711,10 +9743,10 @@
       </c>
       <c r="H87" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A87)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>83</v>
       </c>
@@ -9738,10 +9770,10 @@
       </c>
       <c r="H88" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A88)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>95</v>
       </c>
@@ -9765,10 +9797,10 @@
       </c>
       <c r="H89" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A89)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>12</v>
       </c>
@@ -9792,10 +9824,10 @@
       </c>
       <c r="H90" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A90)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>24</v>
       </c>
@@ -9819,10 +9851,10 @@
       </c>
       <c r="H91" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A91)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>36</v>
       </c>
@@ -9846,10 +9878,10 @@
       </c>
       <c r="H92" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A92)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>48</v>
       </c>
@@ -9873,10 +9905,10 @@
       </c>
       <c r="H93" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A93)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>60</v>
       </c>
@@ -9900,10 +9932,10 @@
       </c>
       <c r="H94" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A94)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>72</v>
       </c>
@@ -9927,10 +9959,10 @@
       </c>
       <c r="H95" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A95)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>84</v>
       </c>
@@ -9954,10 +9986,10 @@
       </c>
       <c r="H96" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A96)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9981,7 +10013,7 @@
       </c>
       <c r="H97" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A97)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
   </sheetData>
@@ -9995,16 +10027,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="1" max="2" width="4.69140625" customWidth="1"/>
+    <col min="3" max="3" width="25.765625" customWidth="1"/>
+    <col min="4" max="4" width="12.69140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.69140625" customWidth="1"/>
+    <col min="7" max="7" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10030,7 +10062,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10054,10 +10086,10 @@
       </c>
       <c r="H2" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A2)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>13</v>
       </c>
@@ -10081,10 +10113,10 @@
       </c>
       <c r="H3" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A3)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>25</v>
       </c>
@@ -10108,10 +10140,10 @@
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A4)),Sample!B:C,2,FALSE)</f>
-        <v>S01_1_1_HEK_NIH3T3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S01_1_1_S01_HEK_NIH3T3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>37</v>
       </c>
@@ -10135,10 +10167,10 @@
       </c>
       <c r="H5" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A5)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>49</v>
       </c>
@@ -10162,10 +10194,10 @@
       </c>
       <c r="H6" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A6)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>61</v>
       </c>
@@ -10189,10 +10221,10 @@
       </c>
       <c r="H7" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A7)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>73</v>
       </c>
@@ -10216,10 +10248,10 @@
       </c>
       <c r="H8" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A8)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>85</v>
       </c>
@@ -10243,10 +10275,10 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A9)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10270,10 +10302,10 @@
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A10)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>14</v>
       </c>
@@ -10297,10 +10329,10 @@
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A11)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>26</v>
       </c>
@@ -10324,10 +10356,10 @@
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A12)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>38</v>
       </c>
@@ -10351,10 +10383,10 @@
       </c>
       <c r="H13" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A13)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>50</v>
       </c>
@@ -10378,10 +10410,10 @@
       </c>
       <c r="H14" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A14)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>62</v>
       </c>
@@ -10405,10 +10437,10 @@
       </c>
       <c r="H15" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A15)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>74</v>
       </c>
@@ -10432,10 +10464,10 @@
       </c>
       <c r="H16" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A16)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>86</v>
       </c>
@@ -10459,10 +10491,10 @@
       </c>
       <c r="H17" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A17)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -10486,10 +10518,10 @@
       </c>
       <c r="H18" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A18)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -10513,10 +10545,10 @@
       </c>
       <c r="H19" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A19)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>27</v>
       </c>
@@ -10540,10 +10572,10 @@
       </c>
       <c r="H20" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A20)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>39</v>
       </c>
@@ -10567,10 +10599,10 @@
       </c>
       <c r="H21" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A21)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>51</v>
       </c>
@@ -10594,10 +10626,10 @@
       </c>
       <c r="H22" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A22)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>63</v>
       </c>
@@ -10621,10 +10653,10 @@
       </c>
       <c r="H23" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A23)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>75</v>
       </c>
@@ -10648,10 +10680,10 @@
       </c>
       <c r="H24" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A24)),Sample!B:C,2,FALSE)</f>
-        <v>S02_1_0_PBMC_LN</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S02_1_0_S02_PBMC_LN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>87</v>
       </c>
@@ -10675,10 +10707,10 @@
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A25)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4</v>
       </c>
@@ -10702,10 +10734,10 @@
       </c>
       <c r="H26" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A26)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>16</v>
       </c>
@@ -10729,10 +10761,10 @@
       </c>
       <c r="H27" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A27)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -10756,10 +10788,10 @@
       </c>
       <c r="H28" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A28)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>40</v>
       </c>
@@ -10783,10 +10815,10 @@
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A29)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>52</v>
       </c>
@@ -10810,10 +10842,10 @@
       </c>
       <c r="H30" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A30)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>64</v>
       </c>
@@ -10837,10 +10869,10 @@
       </c>
       <c r="H31" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A31)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>76</v>
       </c>
@@ -10864,10 +10896,10 @@
       </c>
       <c r="H32" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A32)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>88</v>
       </c>
@@ -10891,10 +10923,10 @@
       </c>
       <c r="H33" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A33)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>5</v>
       </c>
@@ -10918,10 +10950,10 @@
       </c>
       <c r="H34" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A34)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>17</v>
       </c>
@@ -10945,10 +10977,10 @@
       </c>
       <c r="H35" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A35)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>29</v>
       </c>
@@ -10972,10 +11004,10 @@
       </c>
       <c r="H36" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A36)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>41</v>
       </c>
@@ -10999,10 +11031,10 @@
       </c>
       <c r="H37" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A37)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>53</v>
       </c>
@@ -11026,10 +11058,10 @@
       </c>
       <c r="H38" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A38)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>65</v>
       </c>
@@ -11053,10 +11085,10 @@
       </c>
       <c r="H39" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A39)),Sample!B:C,2,FALSE)</f>
-        <v>S03_1_0_PBMC</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S03_1_0_S03_PBMC</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>77</v>
       </c>
@@ -11080,10 +11112,10 @@
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A40)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>89</v>
       </c>
@@ -11107,10 +11139,10 @@
       </c>
       <c r="H41" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A41)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>6</v>
       </c>
@@ -11134,10 +11166,10 @@
       </c>
       <c r="H42" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A42)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>18</v>
       </c>
@@ -11161,10 +11193,10 @@
       </c>
       <c r="H43" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A43)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>30</v>
       </c>
@@ -11188,10 +11220,10 @@
       </c>
       <c r="H44" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A44)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>42</v>
       </c>
@@ -11215,10 +11247,10 @@
       </c>
       <c r="H45" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A45)),Sample!B:C,2,FALSE)</f>
-        <v>S04_1_0_Tcell_LN</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S04_1_0_S04_Tcell_LN</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>54</v>
       </c>
@@ -11242,10 +11274,10 @@
       </c>
       <c r="H46" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A46)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>66</v>
       </c>
@@ -11269,10 +11301,10 @@
       </c>
       <c r="H47" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A47)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>78</v>
       </c>
@@ -11296,10 +11328,10 @@
       </c>
       <c r="H48" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A48)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>90</v>
       </c>
@@ -11323,10 +11355,10 @@
       </c>
       <c r="H49" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A49)),Sample!B:C,2,FALSE)</f>
-        <v>S05_1_0_Tcell</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S05_1_0_S05_Tcell</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>7</v>
       </c>
@@ -11350,10 +11382,10 @@
       </c>
       <c r="H50" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A50)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>19</v>
       </c>
@@ -11377,10 +11409,10 @@
       </c>
       <c r="H51" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A51)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>31</v>
       </c>
@@ -11404,10 +11436,10 @@
       </c>
       <c r="H52" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A52)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>43</v>
       </c>
@@ -11431,10 +11463,10 @@
       </c>
       <c r="H53" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A53)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>55</v>
       </c>
@@ -11458,10 +11490,10 @@
       </c>
       <c r="H54" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A54)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>67</v>
       </c>
@@ -11485,10 +11517,10 @@
       </c>
       <c r="H55" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A55)),Sample!B:C,2,FALSE)</f>
-        <v>S06_1_0_Macrophage_LN</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S06_1_0_S06_Macrophage_LN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>79</v>
       </c>
@@ -11512,10 +11544,10 @@
       </c>
       <c r="H56" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A56)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>91</v>
       </c>
@@ -11539,10 +11571,10 @@
       </c>
       <c r="H57" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A57)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>8</v>
       </c>
@@ -11566,10 +11598,10 @@
       </c>
       <c r="H58" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A58)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>20</v>
       </c>
@@ -11593,10 +11625,10 @@
       </c>
       <c r="H59" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A59)),Sample!B:C,2,FALSE)</f>
-        <v>S07_1_0_Macrophage</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S07_1_0_S07_Macrophage</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>32</v>
       </c>
@@ -11620,10 +11652,10 @@
       </c>
       <c r="H60" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A60)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>44</v>
       </c>
@@ -11647,10 +11679,10 @@
       </c>
       <c r="H61" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A61)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>56</v>
       </c>
@@ -11674,10 +11706,10 @@
       </c>
       <c r="H62" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A62)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>68</v>
       </c>
@@ -11701,10 +11733,10 @@
       </c>
       <c r="H63" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A63)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>80</v>
       </c>
@@ -11728,10 +11760,10 @@
       </c>
       <c r="H64" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A64)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>92</v>
       </c>
@@ -11755,10 +11787,10 @@
       </c>
       <c r="H65" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A65)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>9</v>
       </c>
@@ -11782,10 +11814,10 @@
       </c>
       <c r="H66" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A66)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>21</v>
       </c>
@@ -11809,10 +11841,10 @@
       </c>
       <c r="H67" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A67)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>33</v>
       </c>
@@ -11836,10 +11868,10 @@
       </c>
       <c r="H68" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A68)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>45</v>
       </c>
@@ -11863,10 +11895,10 @@
       </c>
       <c r="H69" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A69)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>57</v>
       </c>
@@ -11890,10 +11922,10 @@
       </c>
       <c r="H70" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A70)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11917,10 +11949,10 @@
       </c>
       <c r="H71" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A71)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>81</v>
       </c>
@@ -11944,10 +11976,10 @@
       </c>
       <c r="H72" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A72)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>93</v>
       </c>
@@ -11971,10 +12003,10 @@
       </c>
       <c r="H73" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A73)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>10</v>
       </c>
@@ -11998,10 +12030,10 @@
       </c>
       <c r="H74" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A74)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>22</v>
       </c>
@@ -12025,10 +12057,10 @@
       </c>
       <c r="H75" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A75)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>34</v>
       </c>
@@ -12052,10 +12084,10 @@
       </c>
       <c r="H76" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A76)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>46</v>
       </c>
@@ -12079,10 +12111,10 @@
       </c>
       <c r="H77" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A77)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>58</v>
       </c>
@@ -12106,10 +12138,10 @@
       </c>
       <c r="H78" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A78)),Sample!B:C,2,FALSE)</f>
-        <v>S08_1_0_Tcell_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S08_1_0_S08_Tcell_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>70</v>
       </c>
@@ -12133,10 +12165,10 @@
       </c>
       <c r="H79" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A79)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>82</v>
       </c>
@@ -12160,10 +12192,10 @@
       </c>
       <c r="H80" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A80)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>94</v>
       </c>
@@ -12190,7 +12222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>11</v>
       </c>
@@ -12214,10 +12246,10 @@
       </c>
       <c r="H82" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A82)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>23</v>
       </c>
@@ -12241,10 +12273,10 @@
       </c>
       <c r="H83" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A83)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>35</v>
       </c>
@@ -12268,10 +12300,10 @@
       </c>
       <c r="H84" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A84)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>47</v>
       </c>
@@ -12295,10 +12327,10 @@
       </c>
       <c r="H85" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A85)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>59</v>
       </c>
@@ -12322,10 +12354,10 @@
       </c>
       <c r="H86" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A86)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>71</v>
       </c>
@@ -12349,10 +12381,10 @@
       </c>
       <c r="H87" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A87)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>83</v>
       </c>
@@ -12376,10 +12408,10 @@
       </c>
       <c r="H88" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A88)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>95</v>
       </c>
@@ -12403,10 +12435,10 @@
       </c>
       <c r="H89" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A89)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>12</v>
       </c>
@@ -12430,10 +12462,10 @@
       </c>
       <c r="H90" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A90)),Sample!B:C,2,FALSE)</f>
-        <v>S10_1_0_Macrophage_Tumor_coculture_11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S10_1_0_S10_Macrophage_Tumor_coculture_11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>24</v>
       </c>
@@ -12457,10 +12489,10 @@
       </c>
       <c r="H91" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A91)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>36</v>
       </c>
@@ -12484,10 +12516,10 @@
       </c>
       <c r="H92" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A92)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>48</v>
       </c>
@@ -12511,10 +12543,10 @@
       </c>
       <c r="H93" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A93)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>60</v>
       </c>
@@ -12538,10 +12570,10 @@
       </c>
       <c r="H94" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A94)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>72</v>
       </c>
@@ -12565,10 +12597,10 @@
       </c>
       <c r="H95" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A95)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>84</v>
       </c>
@@ -12592,10 +12624,10 @@
       </c>
       <c r="H96" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A96)),Sample!B:C,2,FALSE)</f>
-        <v>S11_1_0_Macrophage_Tumor_coculture_21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>S11_1_0_S11_Macrophage_Tumor_coculture_21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12619,7 +12651,7 @@
       </c>
       <c r="H97" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">VLOOKUP(INDIRECT(CONCATENATE("Plate!", Sample!A97)),Sample!B:C,2,FALSE)</f>
-        <v>S09_1_0_Tcell_Tumor_coculture_21</v>
+        <v>S09_1_0_S09_Tcell_Tumor_coculture_21</v>
       </c>
     </row>
   </sheetData>
@@ -12635,15 +12667,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.53515625" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" customWidth="1"/>
+    <col min="4" max="4" width="18.3046875" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12660,7 +12692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12677,7 +12709,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12694,7 +12726,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12711,7 +12743,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12728,7 +12760,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12745,7 +12777,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12762,7 +12794,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12779,7 +12811,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12796,7 +12828,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12813,7 +12845,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12830,7 +12862,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12847,7 +12879,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12864,7 +12896,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12881,7 +12913,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12898,7 +12930,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12915,7 +12947,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12932,7 +12964,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12949,7 +12981,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12966,7 +12998,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12983,7 +13015,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13000,7 +13032,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13017,7 +13049,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13034,7 +13066,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13051,7 +13083,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13068,7 +13100,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13085,7 +13117,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13102,7 +13134,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13119,7 +13151,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13136,7 +13168,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13153,7 +13185,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13170,7 +13202,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13187,7 +13219,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13204,7 +13236,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13221,7 +13253,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13238,7 +13270,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13255,7 +13287,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13272,7 +13304,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13289,7 +13321,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13306,7 +13338,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13323,7 +13355,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13340,7 +13372,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13357,7 +13389,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13374,7 +13406,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13391,7 +13423,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13408,7 +13440,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13425,7 +13457,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13442,7 +13474,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13459,7 +13491,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13476,7 +13508,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13493,7 +13525,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13510,7 +13542,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13527,7 +13559,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13544,7 +13576,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13561,7 +13593,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13578,7 +13610,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13595,7 +13627,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13612,7 +13644,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13629,7 +13661,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13646,7 +13678,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13663,7 +13695,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13680,7 +13712,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13697,7 +13729,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13714,7 +13746,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13731,7 +13763,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13748,7 +13780,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13765,7 +13797,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13782,7 +13814,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13799,7 +13831,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13816,7 +13848,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13833,7 +13865,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13850,7 +13882,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13867,7 +13899,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13884,7 +13916,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -13901,7 +13933,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -13918,7 +13950,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13935,7 +13967,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13952,7 +13984,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13969,7 +14001,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13986,7 +14018,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14003,7 +14035,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14020,7 +14052,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14037,7 +14069,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14054,7 +14086,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14071,7 +14103,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14088,7 +14120,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14105,7 +14137,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14122,7 +14154,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14139,7 +14171,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14156,7 +14188,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14173,7 +14205,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14190,7 +14222,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14207,7 +14239,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -14224,7 +14256,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14241,7 +14273,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14258,7 +14290,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14275,7 +14307,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14292,7 +14324,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14309,7 +14341,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14326,7 +14358,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14343,7 +14375,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14360,7 +14392,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14377,7 +14409,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14394,7 +14426,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14411,7 +14443,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14428,7 +14460,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14445,7 +14477,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14462,7 +14494,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14479,7 +14511,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14496,7 +14528,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14513,7 +14545,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14530,7 +14562,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14547,7 +14579,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14564,7 +14596,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14581,7 +14613,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14598,7 +14630,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14615,7 +14647,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14632,7 +14664,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14649,7 +14681,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14666,7 +14698,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14683,7 +14715,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14700,7 +14732,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14717,7 +14749,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14734,7 +14766,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14751,7 +14783,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14768,7 +14800,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14785,7 +14817,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14802,7 +14834,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14819,7 +14851,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14836,7 +14868,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14853,7 +14885,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14870,7 +14902,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14887,7 +14919,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14904,7 +14936,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14921,7 +14953,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14938,7 +14970,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14955,7 +14987,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14972,7 +15004,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14989,7 +15021,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15006,7 +15038,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15023,7 +15055,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15040,7 +15072,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15057,7 +15089,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15074,7 +15106,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15091,7 +15123,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15108,7 +15140,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15125,7 +15157,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15142,7 +15174,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15159,7 +15191,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15176,7 +15208,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15193,7 +15225,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15210,7 +15242,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15227,7 +15259,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15244,7 +15276,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15261,7 +15293,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15278,7 +15310,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15295,7 +15327,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15312,7 +15344,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15329,7 +15361,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15346,7 +15378,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15363,7 +15395,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15380,7 +15412,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15397,7 +15429,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15414,7 +15446,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15431,7 +15463,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15448,7 +15480,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15465,7 +15497,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15482,7 +15514,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -15499,7 +15531,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -15516,7 +15548,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15533,7 +15565,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -15550,7 +15582,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -15567,7 +15599,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -15584,7 +15616,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -15601,7 +15633,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -15618,7 +15650,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -15635,7 +15667,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -15652,7 +15684,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -15669,7 +15701,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -15686,7 +15718,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -15703,7 +15735,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15720,7 +15752,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15737,7 +15769,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15754,7 +15786,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15771,7 +15803,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15788,7 +15820,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15805,7 +15837,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15822,7 +15854,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -15839,7 +15871,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -15856,7 +15888,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -15873,7 +15905,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -15890,7 +15922,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -15907,7 +15939,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15924,7 +15956,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15941,7 +15973,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15958,7 +15990,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15975,7 +16007,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15992,7 +16024,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16009,7 +16041,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16026,7 +16058,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16043,7 +16075,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -16060,7 +16092,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16077,7 +16109,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -16094,7 +16126,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -16111,7 +16143,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -16128,7 +16160,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -16145,7 +16177,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -16162,7 +16194,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -16179,7 +16211,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -16196,7 +16228,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -16213,7 +16245,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -16230,7 +16262,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -16247,7 +16279,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -16264,7 +16296,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -16281,7 +16313,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -16298,7 +16330,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -16315,7 +16347,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -16332,7 +16364,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -16349,7 +16381,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -16366,7 +16398,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -16383,7 +16415,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -16400,7 +16432,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -16417,7 +16449,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -16434,7 +16466,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -16451,7 +16483,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -16468,7 +16500,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -16485,7 +16517,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -16502,7 +16534,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -16519,7 +16551,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -16536,7 +16568,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -16553,7 +16585,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -16570,7 +16602,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -16587,7 +16619,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -16604,7 +16636,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -16621,7 +16653,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -16638,7 +16670,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -16655,7 +16687,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -16672,7 +16704,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -16689,7 +16721,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -16706,7 +16738,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -16723,7 +16755,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -16740,7 +16772,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -16757,7 +16789,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -16774,7 +16806,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -16791,7 +16823,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -16808,7 +16840,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -16825,7 +16857,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -16842,7 +16874,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -16859,7 +16891,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -16876,7 +16908,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -16893,7 +16925,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -16910,7 +16942,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -16927,7 +16959,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -16944,7 +16976,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -16961,7 +16993,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -16978,7 +17010,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -16995,7 +17027,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -17012,7 +17044,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -17029,7 +17061,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -17046,7 +17078,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -17063,7 +17095,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -17080,7 +17112,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -17097,7 +17129,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -17114,7 +17146,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -17131,7 +17163,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -17148,7 +17180,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -17165,7 +17197,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -17182,7 +17214,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -17199,7 +17231,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -17216,7 +17248,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -17233,7 +17265,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -17250,7 +17282,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -17267,7 +17299,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -17284,7 +17316,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -17301,7 +17333,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -17318,7 +17350,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -17335,7 +17367,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -17352,7 +17384,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -17369,7 +17401,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -17386,7 +17418,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -17403,7 +17435,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17420,7 +17452,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17437,7 +17469,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17454,7 +17486,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17471,7 +17503,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17488,7 +17520,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17505,7 +17537,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17522,7 +17554,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17539,7 +17571,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17567,13 +17599,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.765625" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -17581,7 +17613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1181</v>
       </c>
@@ -17589,7 +17621,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1183</v>
       </c>
@@ -17597,7 +17629,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1185</v>
       </c>
@@ -17605,7 +17637,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1187</v>
       </c>
@@ -17613,7 +17645,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1189</v>
       </c>
@@ -17621,7 +17653,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1191</v>
       </c>
@@ -17629,7 +17661,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1193</v>
       </c>
@@ -17637,7 +17669,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1195</v>
       </c>
@@ -17645,7 +17677,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1197</v>
       </c>
@@ -17653,7 +17685,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>1199</v>
       </c>
@@ -17661,7 +17693,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1201</v>
       </c>
@@ -17669,7 +17701,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>1203</v>
       </c>
@@ -17677,7 +17709,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1205</v>
       </c>
@@ -17685,7 +17717,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1207</v>
       </c>
@@ -17693,7 +17725,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>1209</v>
       </c>
@@ -17701,7 +17733,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1211</v>
       </c>
@@ -17709,7 +17741,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>1213</v>
       </c>
@@ -17717,7 +17749,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1215</v>
       </c>
@@ -17725,7 +17757,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>1217</v>
       </c>
@@ -17733,7 +17765,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>1219</v>
       </c>
@@ -17741,7 +17773,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>1221</v>
       </c>
@@ -17749,7 +17781,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>1223</v>
       </c>
@@ -17757,7 +17789,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>1225</v>
       </c>
@@ -17765,7 +17797,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>1227</v>
       </c>
@@ -17773,7 +17805,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>1229</v>
       </c>
@@ -17781,7 +17813,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>1231</v>
       </c>
@@ -17789,7 +17821,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>1233</v>
       </c>
@@ -17797,7 +17829,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>1235</v>
       </c>
@@ -17805,7 +17837,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>1237</v>
       </c>
@@ -17813,7 +17845,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>1239</v>
       </c>
@@ -17821,7 +17853,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>1241</v>
       </c>
@@ -17829,7 +17861,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>1243</v>
       </c>
@@ -17837,7 +17869,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>1245</v>
       </c>
@@ -17845,7 +17877,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>1247</v>
       </c>
@@ -17853,7 +17885,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>1249</v>
       </c>
@@ -17861,7 +17893,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>1251</v>
       </c>
@@ -17869,7 +17901,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>1253</v>
       </c>
@@ -17877,7 +17909,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>1255</v>
       </c>
@@ -17885,7 +17917,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>1257</v>
       </c>
@@ -17893,7 +17925,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>1259</v>
       </c>
@@ -17901,7 +17933,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>1261</v>
       </c>
@@ -17909,7 +17941,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>1263</v>
       </c>
@@ -17917,7 +17949,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>1265</v>
       </c>
@@ -17925,7 +17957,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>1267</v>
       </c>
@@ -17933,7 +17965,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>1269</v>
       </c>
@@ -17941,7 +17973,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>1271</v>
       </c>
@@ -17949,7 +17981,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>1273</v>
       </c>
@@ -17957,7 +17989,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>1275</v>
       </c>
@@ -17965,7 +17997,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>1277</v>
       </c>
@@ -17973,7 +18005,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>1279</v>
       </c>
@@ -17981,7 +18013,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>1281</v>
       </c>
@@ -17989,7 +18021,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>1283</v>
       </c>
@@ -17997,7 +18029,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>1285</v>
       </c>
@@ -18005,7 +18037,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>1287</v>
       </c>
@@ -18013,7 +18045,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>1289</v>
       </c>
@@ -18021,7 +18053,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>1291</v>
       </c>
@@ -18029,7 +18061,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>1293</v>
       </c>
@@ -18037,7 +18069,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>1295</v>
       </c>
@@ -18045,7 +18077,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>1296</v>
       </c>
@@ -18053,7 +18085,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>1298</v>
       </c>
@@ -18061,7 +18093,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>1300</v>
       </c>
@@ -18069,7 +18101,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>1302</v>
       </c>
@@ -18077,7 +18109,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>1304</v>
       </c>
@@ -18085,7 +18117,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>1306</v>
       </c>
@@ -18093,7 +18125,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>1308</v>
       </c>
@@ -18101,7 +18133,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>1310</v>
       </c>
@@ -18109,7 +18141,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>1312</v>
       </c>
@@ -18117,7 +18149,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>1314</v>
       </c>
@@ -18125,7 +18157,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>1316</v>
       </c>
@@ -18133,7 +18165,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>1318</v>
       </c>
@@ -18141,7 +18173,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>1320</v>
       </c>
@@ -18149,7 +18181,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>1322</v>
       </c>
@@ -18157,7 +18189,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>1324</v>
       </c>
@@ -18165,7 +18197,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>1326</v>
       </c>
@@ -18173,7 +18205,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>1328</v>
       </c>
@@ -18181,7 +18213,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>1330</v>
       </c>
@@ -18189,7 +18221,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>1332</v>
       </c>
@@ -18197,7 +18229,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>1334</v>
       </c>
@@ -18205,7 +18237,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>1336</v>
       </c>
@@ -18213,7 +18245,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>1338</v>
       </c>
@@ -18221,7 +18253,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>1340</v>
       </c>
@@ -18229,7 +18261,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>1342</v>
       </c>
@@ -18237,7 +18269,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>1344</v>
       </c>
@@ -18245,7 +18277,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>1346</v>
       </c>
@@ -18253,7 +18285,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>1348</v>
       </c>
@@ -18261,7 +18293,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>1350</v>
       </c>
@@ -18269,7 +18301,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>1352</v>
       </c>
@@ -18277,7 +18309,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>1354</v>
       </c>
@@ -18285,7 +18317,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>1356</v>
       </c>
@@ -18293,7 +18325,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>1358</v>
       </c>
@@ -18301,7 +18333,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>1360</v>
       </c>
@@ -18309,7 +18341,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>1362</v>
       </c>
@@ -18317,7 +18349,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>1364</v>
       </c>
@@ -18325,7 +18357,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>1366</v>
       </c>
@@ -18333,7 +18365,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>1368</v>
       </c>
@@ -18341,7 +18373,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>1370</v>
       </c>
